--- a/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Age at exposure measure</t>
+          <t>Age at exposure measure [years]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Physical activity from questionnaire data</t>
+          <t>Physical activity from questionnaire data [MET-hr/day]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>MET-min/Wo</t>
+          <t>MET-min/week</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Physical activity from accelerometry data</t>
+          <t>Physical activity from accelerometry data [MET-hr/day]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -828,11 +828,6 @@
           <t>impossible</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Activity energy expenditure (AEE) on day 6 (day prior to blood sampling) assessed by Actiheart ;</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -840,7 +835,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>incompatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -870,22 +865,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mean Activity energy expenditure (AEE) assessed by Actiheart</t>
+          <t>unavailable</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -900,7 +905,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cumulative lifetime tobacco exposure</t>
+          <t>Cumulative lifetime tobacco exposure  [pack years]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -915,32 +920,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>all included participants are current non-smokers; no information available on former smoking</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -955,12 +955,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Amount of daily tobacco smoked</t>
+          <t>Amount of daily tobacco smoked [g/day]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -970,32 +970,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>all included participants are current non-smokers; no information available on former smoking</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1005,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Age at time of quitting smoking</t>
+          <t>Age at time of quitting smoking [years]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1025,32 +1020,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>all included participants are current non-smokers; no information available on former smoking</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -1093,19 +1083,14 @@
           <t>impossible</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>all included participants are current non-smokers; no information available on former smoking</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -1198,6 +1183,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>no HRT for all included women due to inclusion criteria, new variable could be created coded such as HRT=0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>complete</t>
@@ -1220,7 +1210,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Use of contraceptive pills or injections</t>
+          <t>Use of contraceptive pills or injections [years]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1250,7 +1240,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>no HRT for all included women due to inclusion criteria, new variable could be created coded such as HRT=0</t>
+          <t>all included women did not take contraceptives due to inclusion criteria, new variable could be created coding all participants =0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1275,7 +1265,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Number of live births given</t>
+          <t>Number of live births given [Nr. of birth]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1303,19 +1293,14 @@
           <t>impossible</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>all included women did not take contraceptives due to inclusion criteria, new variable could be created coding all participants =0</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1315,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Age at the first given birth</t>
+          <t>Age at the first given birth [years]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1608,6 +1593,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>complete</t>
@@ -1770,7 +1760,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of cancer; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1825,17 +1815,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of cancer; new variable could be created coded =0 for all participants</t>
+          <t>unavailable</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2170,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Screening, Skin cancer</t>
+          <t>Screening, skin cancer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2235,7 +2225,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Screening, Mammography</t>
+          <t>Screening, mammography</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2290,7 +2280,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cervical screening, smear test</t>
+          <t>Screening cervical, smear test</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2375,17 +2365,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2475,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -2510,12 +2500,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Age at diagnosis of CVD</t>
+          <t>Age at diagnosis of CVD [years]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2620,12 +2610,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Age at diagnosis of angina pectoris</t>
+          <t>Age at diagnosis of angina pectoris [years]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2730,12 +2720,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Age at diagnosis of myocardial infarction</t>
+          <t>Age at diagnosis of myocardial infarction [years]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2840,12 +2830,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Age at diagnosis of stroke</t>
+          <t>Age at diagnosis of stroke [years]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2950,12 +2940,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Age at diagnosis of cerebral infarction (ischaemic stroke)</t>
+          <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3060,12 +3050,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Age at diagnosis of haemorrhagic stroke</t>
+          <t>Age at diagnosis of haemorrhagic stroke [years]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3170,12 +3160,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Age at diagnosis of essential hypertension</t>
+          <t>Age at diagnosis of essential hypertension [years]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3280,12 +3270,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Age at diagnosis of heart failure</t>
+          <t>Age at diagnosis of heart failure [years]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3390,12 +3380,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Age at diagnosis of diabetes mellitus type 2</t>
+          <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3500,12 +3490,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Type of cancer</t>
+          <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3555,12 +3545,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Age at diagnosis of cancer</t>
+          <t>Age at diagnosis of cancer [years]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3665,12 +3655,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Age at time of death</t>
+          <t>Age at time of death [years]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3830,7 +3820,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Age at end of follow-up</t>
+          <t>Age at end of follow-up [years]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
@@ -865,32 +865,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>__BLANK__</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>paste</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>non-smokers as inclusion criterion, but we cannot be sure, if they are real never smokers or former smokers</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of hypertension; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of CVD; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>due to inclusion criteria, no medication for all included participants; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>due to inclusion criteria, all participants were healthy at time of reruitment without a history of diabetes; new variable could be created coded =0 for all participants</t>
+          <t>due to inclusion criteria, no medication for all included participants; new variable could be created coded =0 for all participants</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3938,11 +3938,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3988,11 +3983,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4043,11 +4033,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4098,11 +4083,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4198,29 +4178,24 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>FR_gynoid</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>unavailable</t>
         </is>
       </c>
     </row>
@@ -4248,11 +4223,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4298,6 +4268,26 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4373,6 +4363,26 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4398,6 +4408,31 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>FG_Prozent</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4925,7 +4960,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>KMD_tag</t>
+          <t>sugars_NCI</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4973,11 +5008,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5023,11 +5053,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5075,7 +5100,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>KMT_tag</t>
+          <t>KMT_tag_NCI</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5125,7 +5150,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>KMF_tag</t>
+          <t>KMF_tag_NCI</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5173,11 +5198,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5223,11 +5243,6 @@
           <t>KARMEN_P2</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>impossible</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5375,7 +5390,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sues_sum</t>
+          <t>Sues_sum_NCI</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5475,7 +5490,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Getr15_14</t>
+          <t>Getr15_14_NCI</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5525,7 +5540,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Getr15_16</t>
+          <t>Getr15_16_NCI</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5575,7 +5590,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Suessstoffe</t>
+          <t>Suessstoffe_MW</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5588,14 +5603,19 @@
           <t>direct_mapping</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>calculated as mean of 2 24h-recalls</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>tentative</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5645,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Gem02_1</t>
+          <t>Gem02_1_NCI</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5675,7 +5695,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Gem02_Hu</t>
+          <t>Gem02_Hu_NCI</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5725,7 +5745,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Obst_sum</t>
+          <t>Obst_sum_NCI</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5825,7 +5845,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Flei_Wurst</t>
+          <t>Flei_Wurst_NCI</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5875,32 +5895,27 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Getr15_12</t>
+          <t>Kaffee_NCI</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5 * Getr15_12</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Do you know the proportion of coffee drinkers? Does 50% make sense?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -5930,32 +5945,27 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Getr15_12</t>
+          <t>blackgreentea_NCI</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.5 * Getr15_12</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Do you know the proportion of tea drinkers? Does 50% make sense?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6010,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2 (24HDR)</t>
+          <t>2 (24HDR) NCI method</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P2.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(IPAQ_MET_Total*60)/7</t>
+          <t>(IPAQ_MET_Total/60)/7</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>compatible</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>recode(0=1;1=2;)</t>
+          <t>recode(1=0;2=1;)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1225,32 +1225,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>all included women did not take contraceptives due to inclusion criteria, new variable could be created coding all participants =0</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>incompatible</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1385,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>KL_TG * 88.57</t>
+          <t>KL_TG * 0.0113</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1440,7 +1435,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>KL_CHO * 38.67</t>
+          <t>KL_CHO * 0.0259</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1490,7 +1485,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>KL_LDLC * 38.67</t>
+          <t>KL_LDLC * 0.0259</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1540,7 +1535,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>KL_HDLC * 38.67</t>
+          <t>KL_HDLC * 0.0259</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
